--- a/alcaldes 2021/alcaldes primarias 2020.xlsx
+++ b/alcaldes 2021/alcaldes primarias 2020.xlsx
@@ -1,28 +1,530 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Dropbox\candidatos\alcaldes 2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF1DF6D-29C5-4D41-B57B-5251228F7449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="157">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>región</t>
+  </si>
+  <si>
+    <t>region2</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>lista</t>
+  </si>
+  <si>
+    <t>partido</t>
+  </si>
+  <si>
+    <t>fuente</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>comuna</t>
+  </si>
+  <si>
+    <t>David Navarro</t>
+  </si>
+  <si>
+    <t>Orlando Morales</t>
+  </si>
+  <si>
+    <t>Sara Campos</t>
+  </si>
+  <si>
+    <t>La Reina</t>
+  </si>
+  <si>
+    <t>La Cisterna</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
+  </si>
+  <si>
+    <t>Pudahuel</t>
+  </si>
+  <si>
+    <t>Mónica Sánchez</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>PPD</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>San Felipe</t>
+  </si>
+  <si>
+    <t>Ovalle</t>
+  </si>
+  <si>
+    <t>Chillán</t>
+  </si>
+  <si>
+    <t>Hualpén</t>
+  </si>
+  <si>
+    <t>Wladimir Pleticosic</t>
+  </si>
+  <si>
+    <t>Carmen Castillo</t>
+  </si>
+  <si>
+    <t>Camilo Benavente</t>
+  </si>
+  <si>
+    <t>Miguel Rivera</t>
+  </si>
+  <si>
+    <t>Conchalí</t>
+  </si>
+  <si>
+    <t>Providencia</t>
+  </si>
+  <si>
+    <t>Panquehue</t>
+  </si>
+  <si>
+    <t>Río Negro</t>
+  </si>
+  <si>
+    <t>Quinchao</t>
+  </si>
+  <si>
+    <t>Quilpué</t>
+  </si>
+  <si>
+    <t>Alejandro Vargas</t>
+  </si>
+  <si>
+    <t>Verónica Pardo</t>
+  </si>
+  <si>
+    <t>Gonzalo Vergara</t>
+  </si>
+  <si>
+    <t>Claudia Pailalef</t>
+  </si>
+  <si>
+    <t>Sergio Agüero</t>
+  </si>
+  <si>
+    <t>Christian Cárdenas</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>Catemu</t>
+  </si>
+  <si>
+    <t>Curanilahue</t>
+  </si>
+  <si>
+    <t>Puyehue</t>
+  </si>
+  <si>
+    <t>Lago Verde</t>
+  </si>
+  <si>
+    <t>Felipe González</t>
+  </si>
+  <si>
+    <t>Juan Fonseca</t>
+  </si>
+  <si>
+    <t>Renato Uribe</t>
+  </si>
+  <si>
+    <t>Claudia Valdés</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>San Fernando</t>
+  </si>
+  <si>
+    <t>Puqueldón</t>
+  </si>
+  <si>
+    <t>Marcelo Barraza</t>
+  </si>
+  <si>
+    <t>Luis Orellana</t>
+  </si>
+  <si>
+    <t>Rodrigo Ojeda</t>
+  </si>
+  <si>
+    <t>San Esteban</t>
+  </si>
+  <si>
+    <t>Ranco</t>
+  </si>
+  <si>
+    <t>Pirque</t>
+  </si>
+  <si>
+    <t>Vallenar</t>
+  </si>
+  <si>
+    <t>Julio Contreras</t>
+  </si>
+  <si>
+    <t>Andrés Reinoso</t>
+  </si>
+  <si>
+    <t>Jaime Escudero</t>
+  </si>
+  <si>
+    <t>Karina Zárate</t>
+  </si>
+  <si>
+    <t>Chañaral</t>
+  </si>
+  <si>
+    <t>Margarita Flores</t>
+  </si>
+  <si>
+    <t>Carla Manosalva</t>
+  </si>
+  <si>
+    <t>Villa Alegre</t>
+  </si>
+  <si>
+    <t>María Isabel Araneda</t>
+  </si>
+  <si>
+    <t>Laja</t>
+  </si>
+  <si>
+    <t>Nogales</t>
+  </si>
+  <si>
+    <t>Ricardo Aliaga</t>
+  </si>
+  <si>
+    <t>Carolina Muñoz</t>
+  </si>
+  <si>
+    <t>Hualañé</t>
+  </si>
+  <si>
+    <t>Valdivia</t>
+  </si>
+  <si>
+    <t>Gonzalo Espinoza</t>
+  </si>
+  <si>
+    <t>Olmué</t>
+  </si>
+  <si>
+    <t>Alejandro Collao</t>
+  </si>
+  <si>
+    <t>Waldo Alfaro</t>
+  </si>
+  <si>
+    <t>Linares</t>
+  </si>
+  <si>
+    <t>Lolol</t>
+  </si>
+  <si>
+    <t>La Calera</t>
+  </si>
+  <si>
+    <t>Lo Espejo</t>
+  </si>
+  <si>
+    <t>Freire</t>
+  </si>
+  <si>
+    <t>Quinta de Tilcoco</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Melipilla</t>
+  </si>
+  <si>
+    <t>Yumbel</t>
+  </si>
+  <si>
+    <t>Quillota</t>
+  </si>
+  <si>
+    <t>Quilaco</t>
+  </si>
+  <si>
+    <t>Santa Juana</t>
+  </si>
+  <si>
+    <t>San Francisco de Mostazal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueva Imperial </t>
+  </si>
+  <si>
+    <t>Lampa</t>
+  </si>
+  <si>
+    <t>José Díaz</t>
+  </si>
+  <si>
+    <t>Eduardo Martínez</t>
+  </si>
+  <si>
+    <t>Carlos Gardel</t>
+  </si>
+  <si>
+    <t>Luis Arias</t>
+  </si>
+  <si>
+    <t>Heli Carrasco</t>
+  </si>
+  <si>
+    <t>Jorge Jorquera</t>
+  </si>
+  <si>
+    <t>Juan González</t>
+  </si>
+  <si>
+    <t>Yolanda Romero</t>
+  </si>
+  <si>
+    <t>Mauricio Ávila</t>
+  </si>
+  <si>
+    <t>Pablo Urrutia</t>
+  </si>
+  <si>
+    <t>Jocsan Sanhueza</t>
+  </si>
+  <si>
+    <t>Verónica Arroyo</t>
+  </si>
+  <si>
+    <t>César Sepúlveda</t>
+  </si>
+  <si>
+    <t>Carlos Escobar</t>
+  </si>
+  <si>
+    <t>Buin</t>
+  </si>
+  <si>
+    <t>Carahue</t>
+  </si>
+  <si>
+    <t>Paredones</t>
+  </si>
+  <si>
+    <t>Pelarco</t>
+  </si>
+  <si>
+    <t>Mariquina</t>
+  </si>
+  <si>
+    <t>San Pablo</t>
+  </si>
+  <si>
+    <t>Elías Huanquilen</t>
+  </si>
+  <si>
+    <t>Filomena Navia</t>
+  </si>
+  <si>
+    <t>La Cruz</t>
+  </si>
+  <si>
+    <t>Villa Alemana</t>
+  </si>
+  <si>
+    <t>Heinrich Wittig</t>
+  </si>
+  <si>
+    <t>El Tabo</t>
+  </si>
+  <si>
+    <t>Alfonso Muñoz</t>
+  </si>
+  <si>
+    <t>Unidad Constituyente</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Atacama</t>
+  </si>
+  <si>
+    <t>Quillón</t>
+  </si>
+  <si>
+    <t>Miguel Peña</t>
+  </si>
+  <si>
+    <t>Calbuco</t>
+  </si>
+  <si>
+    <t>Marco Silva</t>
+  </si>
+  <si>
+    <t>Cauquenes</t>
+  </si>
+  <si>
+    <t>Domingo Leiva</t>
+  </si>
+  <si>
+    <t>Ñiquén</t>
+  </si>
+  <si>
+    <t>Pablo Jiménez</t>
+  </si>
+  <si>
+    <t>Metropolitana</t>
+  </si>
+  <si>
+    <t>Los Lagos</t>
+  </si>
+  <si>
+    <t>Araucanía</t>
+  </si>
+  <si>
+    <t>Maule</t>
+  </si>
+  <si>
+    <t>Ñuble</t>
+  </si>
+  <si>
+    <t>Bío Bío</t>
+  </si>
+  <si>
+    <t>Aysén</t>
+  </si>
+  <si>
+    <t>O'Higgins</t>
+  </si>
+  <si>
+    <t>Los Ríos</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Padre Hurtado</t>
+  </si>
+  <si>
+    <t>Arauco</t>
+  </si>
+  <si>
+    <t>Tucapel</t>
+  </si>
+  <si>
+    <t>La Unión</t>
+  </si>
+  <si>
+    <t>Lota</t>
+  </si>
+  <si>
+    <t>Lumaco</t>
+  </si>
+  <si>
+    <t>San José de Maipo</t>
+  </si>
+  <si>
+    <t>Angol</t>
+  </si>
+  <si>
+    <t>Melipeuco</t>
+  </si>
+  <si>
+    <t>Til Til</t>
+  </si>
+  <si>
+    <t>Pica</t>
+  </si>
+  <si>
+    <t>Alto del Carmen</t>
+  </si>
+  <si>
+    <t>Puerto Octay</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +551,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +835,1657 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2">
+        <v>5.5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7">
+        <v>5.5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14">
+        <v>5.5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16">
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19">
+        <v>5.5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21">
+        <v>5.5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24">
+        <v>5.5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32">
+        <v>5.5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33">
+        <v>5.5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34">
+        <v>5.5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" t="s">
+        <v>123</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" t="s">
+        <v>123</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49">
+        <v>5.5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F52" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" t="s">
+        <v>43</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" t="s">
+        <v>42</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F69" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" t="s">
+        <v>123</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{B072A6EC-B860-48D4-94B3-D42247BE32FD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J74">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>